--- a/GridMaze/PCBs/maze_poke_1_0/maze_poke_1_0_BOM.xlsx
+++ b/GridMaze/PCBs/maze_poke_1_0/maze_poke_1_0_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\Hardware development\Maze hardware\PCBs\maze_poke_1_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Dropbox\Hardware development\pyControl\hardware\GridMaze\PCBs\maze_poke_1_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99F56B4-E945-485C-BB4C-89225C0747CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F08E69-32CB-450D-B559-17A0EEC846A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="1800" windowWidth="16710" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -187,16 +187,16 @@
     <t>KINGSTATE</t>
   </si>
   <si>
-    <t>82R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCWR08X82R0FTL </t>
-  </si>
-  <si>
     <t>PT480FE0000F</t>
   </si>
   <si>
     <t>KSSG1708</t>
+  </si>
+  <si>
+    <t>MCWR08X90R9FTL</t>
+  </si>
+  <si>
+    <t>90R</t>
   </si>
 </sst>
 </file>
@@ -754,9 +754,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -794,9 +794,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,26 +829,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -881,26 +864,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1077,7 +1043,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>1243890</v>
@@ -1192,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1207,10 +1173,10 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5">
-        <v>2447730</v>
+        <v>2695100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1516,7 +1482,7 @@
         <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17">
         <v>1502738</v>
